--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sprint 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Scrummaster" sheetId="3" r:id="rId1"/>
+    <sheet name="Initial" sheetId="4" r:id="rId2"/>
+    <sheet name="Sprint 1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
   <si>
     <t>Done :</t>
   </si>
@@ -50,13 +50,79 @@
   </si>
   <si>
     <t>Penjelasan pada Sprint 1</t>
+  </si>
+  <si>
+    <t>1. Pengertian Software</t>
+  </si>
+  <si>
+    <t>2. Pengertian Hardware</t>
+  </si>
+  <si>
+    <t>3. Pengertian Brainware</t>
+  </si>
+  <si>
+    <t>4. Contoh Hardware</t>
+  </si>
+  <si>
+    <t>5. Contoh Software</t>
+  </si>
+  <si>
+    <t>6. Contoh Brainware</t>
+  </si>
+  <si>
+    <t>7. Index</t>
+  </si>
+  <si>
+    <t>8. Menu</t>
+  </si>
+  <si>
+    <t>Penjelasan Tahapan Sebelum Memulai Proyek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprint 1 : </t>
+  </si>
+  <si>
+    <t>(3 hari)</t>
+  </si>
+  <si>
+    <t>Sprint 2 :</t>
+  </si>
+  <si>
+    <t>Sprint 3 :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sprint 4 : </t>
+  </si>
+  <si>
+    <t>Sprint 5 :</t>
+  </si>
+  <si>
+    <t>David Tjin</t>
+  </si>
+  <si>
+    <t>Albert Wijaya</t>
+  </si>
+  <si>
+    <t>Ismail Gohzali</t>
+  </si>
+  <si>
+    <t>Ricky Wijaya</t>
+  </si>
+  <si>
+    <t>(4 hari)</t>
+  </si>
+  <si>
+    <t>(1 harI)</t>
+  </si>
+  <si>
+    <t>Scrummaster</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,6 +137,14 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -94,11 +168,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -118,14 +193,63 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>179902</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="838200"/>
+          <a:ext cx="10058400" cy="4485202"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>78082</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -449,37 +573,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:S39"/>
+  <dimension ref="C2:S9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U28" sqref="U27:V28"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-    </row>
-    <row r="2" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="1"/>
+    <row r="2" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C2" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -497,79 +602,294 @@
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
     </row>
-    <row r="34" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C34" t="s">
-        <v>1</v>
-      </c>
-      <c r="K34" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C35" t="s">
-        <v>2</v>
-      </c>
-      <c r="K35" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C36" t="s">
-        <v>3</v>
-      </c>
-      <c r="K36" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C37" t="s">
-        <v>4</v>
-      </c>
-      <c r="K37" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="K38" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="K39" t="s">
-        <v>9</v>
+    <row r="3" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+    </row>
+    <row r="5" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C1:S2"/>
+    <mergeCell ref="C2:S3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="C2:S38"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S4" sqref="C4:S4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+    </row>
+    <row r="3" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+    </row>
+    <row r="30" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>1</v>
+      </c>
+      <c r="K30" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C2:S3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="C2:S37"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:S3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+    </row>
+    <row r="3" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+    </row>
+    <row r="32" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>1</v>
+      </c>
+      <c r="K32" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>2</v>
+      </c>
+      <c r="K33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>3</v>
+      </c>
+      <c r="K34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>4</v>
+      </c>
+      <c r="K35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="K36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="K37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C2:S3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -1,23 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\albert\Desktop\b\KomponenKomputer\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Scrummaster" sheetId="3" r:id="rId1"/>
     <sheet name="Initial" sheetId="4" r:id="rId2"/>
     <sheet name="Sprint 1" sheetId="1" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
+    <sheet name="Sprint 2" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
   <si>
     <t>Done :</t>
   </si>
@@ -116,6 +121,9 @@
   </si>
   <si>
     <t>Scrummaster</t>
+  </si>
+  <si>
+    <t>Penjelasan pada Sprint 2</t>
   </si>
 </sst>
 </file>
@@ -170,10 +178,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -183,6 +191,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -286,6 +297,55 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>80973</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="571500"/>
+          <a:ext cx="10058400" cy="5224473"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -329,7 +389,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -364,7 +424,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -582,44 +642,44 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
     </row>
     <row r="3" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
     </row>
     <row r="5" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
@@ -628,7 +688,7 @@
       <c r="D5" t="s">
         <v>26</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="1" t="s">
         <v>21</v>
       </c>
     </row>
@@ -639,7 +699,7 @@
       <c r="D6" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="1" t="s">
         <v>30</v>
       </c>
     </row>
@@ -650,7 +710,7 @@
       <c r="D7" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="1" t="s">
         <v>21</v>
       </c>
     </row>
@@ -661,7 +721,7 @@
       <c r="D8" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="1" t="s">
         <v>21</v>
       </c>
     </row>
@@ -672,7 +732,7 @@
       <c r="D9" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -695,44 +755,44 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
     </row>
     <row r="3" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
     </row>
     <row r="30" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
@@ -795,51 +855,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:S37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
     </row>
     <row r="3" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
     </row>
     <row r="32" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
@@ -895,12 +955,59 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="C1:S2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+    </row>
+    <row r="2" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:S2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -1,28 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\albert\Desktop\b\KomponenKomputer\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Scrummaster" sheetId="3" r:id="rId1"/>
     <sheet name="Initial" sheetId="4" r:id="rId2"/>
     <sheet name="Sprint 1" sheetId="1" r:id="rId3"/>
     <sheet name="Sprint 2" sheetId="2" r:id="rId4"/>
+    <sheet name="Sprint 3" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
   <si>
     <t>Done :</t>
   </si>
@@ -124,13 +120,16 @@
   </si>
   <si>
     <t>Penjelasan pada Sprint 2</t>
+  </si>
+  <si>
+    <t>Penjelasan pada Sprint 3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,10 +221,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -271,10 +270,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -320,10 +319,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -335,6 +334,49 @@
         <a:xfrm>
           <a:off x="1219200" y="571500"/>
           <a:ext cx="10058400" cy="5224473"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>241943</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="Screenshot (147).png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="571500"/>
+          <a:ext cx="9995543" cy="5619749"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -389,7 +431,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -421,10 +463,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -456,7 +497,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -632,16 +672,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C2:S9"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:19">
       <c r="C2" s="2" t="s">
         <v>32</v>
       </c>
@@ -662,7 +702,7 @@
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
     </row>
-    <row r="3" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:19">
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -681,7 +721,7 @@
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
     </row>
-    <row r="5" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:19">
       <c r="C5" t="s">
         <v>20</v>
       </c>
@@ -692,7 +732,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:19">
       <c r="C6" t="s">
         <v>22</v>
       </c>
@@ -703,7 +743,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:19">
       <c r="C7" t="s">
         <v>23</v>
       </c>
@@ -714,7 +754,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:19">
       <c r="C8" t="s">
         <v>24</v>
       </c>
@@ -725,7 +765,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:19">
       <c r="C9" t="s">
         <v>25</v>
       </c>
@@ -745,16 +785,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C2:S38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="S4" sqref="C4:S4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:19">
       <c r="C2" s="2" t="s">
         <v>19</v>
       </c>
@@ -775,7 +815,7 @@
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
     </row>
-    <row r="3" spans="3:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:19">
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -794,7 +834,7 @@
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
     </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:11">
       <c r="C30" t="s">
         <v>1</v>
       </c>
@@ -802,42 +842,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:11">
       <c r="C31" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:11">
       <c r="C32" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:3">
       <c r="C33" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:3">
       <c r="C34" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:3">
       <c r="C35" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:3">
       <c r="C36" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:3">
       <c r="C37" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:3">
       <c r="C38" t="s">
         <v>18</v>
       </c>
@@ -852,16 +892,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C2:S37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C2" sqref="C2:S3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:19" ht="15" customHeight="1">
       <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
@@ -882,7 +922,7 @@
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
     </row>
-    <row r="3" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:19" ht="15" customHeight="1">
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -901,7 +941,7 @@
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
     </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:11">
       <c r="C32" t="s">
         <v>1</v>
       </c>
@@ -909,7 +949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:11">
       <c r="C33" t="s">
         <v>2</v>
       </c>
@@ -917,7 +957,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:11">
       <c r="C34" t="s">
         <v>3</v>
       </c>
@@ -925,7 +965,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:11">
       <c r="C35" t="s">
         <v>4</v>
       </c>
@@ -933,12 +973,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:11">
       <c r="K36" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:11">
       <c r="K37" t="s">
         <v>9</v>
       </c>
@@ -954,16 +994,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:19" ht="15" customHeight="1">
       <c r="C1" s="2" t="s">
         <v>33</v>
       </c>
@@ -984,7 +1024,7 @@
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
     </row>
-    <row r="2" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:19" ht="15" customHeight="1">
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -1010,4 +1050,63 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="C1:S2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U9" sqref="U9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="3:19" ht="15" customHeight="1">
+      <c r="C1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+    </row>
+    <row r="2" spans="3:19" ht="15" customHeight="1">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:S2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RickyWijaya.WeN\Desktop\tugas tkppl\KomponenKomputer\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Scrummaster" sheetId="3" r:id="rId1"/>
@@ -12,13 +17,14 @@
     <sheet name="Sprint 1" sheetId="1" r:id="rId3"/>
     <sheet name="Sprint 2" sheetId="2" r:id="rId4"/>
     <sheet name="Sprint 3" sheetId="5" r:id="rId5"/>
+    <sheet name="Sprint 4" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
   <si>
     <t>Done :</t>
   </si>
@@ -124,12 +130,15 @@
   <si>
     <t>Penjelasan pada Sprint 3</t>
   </si>
+  <si>
+    <t>Penjelasan pada Sprint 4</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -224,7 +233,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -273,7 +282,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -322,7 +331,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -377,6 +386,55 @@
         <a:xfrm>
           <a:off x="1219200" y="571500"/>
           <a:ext cx="9995543" cy="5619749"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>131997</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1333500" y="561975"/>
+          <a:ext cx="10058400" cy="4904022"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -431,7 +489,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -463,9 +521,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -497,6 +556,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -672,16 +732,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:S9"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="3:19">
+    <row r="2" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C2" s="2" t="s">
         <v>32</v>
       </c>
@@ -702,7 +762,7 @@
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
     </row>
-    <row r="3" spans="3:19">
+    <row r="3" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -721,7 +781,7 @@
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
     </row>
-    <row r="5" spans="3:19">
+    <row r="5" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>20</v>
       </c>
@@ -732,7 +792,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="3:19">
+    <row r="6" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>22</v>
       </c>
@@ -743,7 +803,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="3:19">
+    <row r="7" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>23</v>
       </c>
@@ -754,7 +814,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="3:19">
+    <row r="8" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>24</v>
       </c>
@@ -765,7 +825,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="3:19">
+    <row r="9" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>25</v>
       </c>
@@ -785,16 +845,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:S38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="S4" sqref="C4:S4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="3:19">
+    <row r="2" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C2" s="2" t="s">
         <v>19</v>
       </c>
@@ -815,7 +875,7 @@
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
     </row>
-    <row r="3" spans="3:19">
+    <row r="3" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -834,7 +894,7 @@
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
     </row>
-    <row r="30" spans="3:11">
+    <row r="30" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>1</v>
       </c>
@@ -842,42 +902,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="3:11">
+    <row r="31" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="3:11">
+    <row r="32" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="33" spans="3:3">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="3:3">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="3:3">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="3:3">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="3:3">
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="3:3">
+    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>18</v>
       </c>
@@ -892,16 +952,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:S37"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C2" sqref="C2:S3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="3:19" ht="15" customHeight="1">
+    <row r="2" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
@@ -922,7 +982,7 @@
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
     </row>
-    <row r="3" spans="3:19" ht="15" customHeight="1">
+    <row r="3" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -941,7 +1001,7 @@
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
     </row>
-    <row r="32" spans="3:11">
+    <row r="32" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>1</v>
       </c>
@@ -949,7 +1009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="3:11">
+    <row r="33" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>2</v>
       </c>
@@ -957,7 +1017,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="3:11">
+    <row r="34" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>3</v>
       </c>
@@ -965,7 +1025,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="3:11">
+    <row r="35" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>4</v>
       </c>
@@ -973,12 +1033,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="3:11">
+    <row r="36" spans="3:11" x14ac:dyDescent="0.25">
       <c r="K36" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="3:11">
+    <row r="37" spans="3:11" x14ac:dyDescent="0.25">
       <c r="K37" t="s">
         <v>9</v>
       </c>
@@ -994,16 +1054,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:S2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="3:19" ht="15" customHeight="1">
+    <row r="1" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C1" s="2" t="s">
         <v>33</v>
       </c>
@@ -1024,7 +1084,7 @@
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
     </row>
-    <row r="2" spans="3:19" ht="15" customHeight="1">
+    <row r="2" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -1053,16 +1113,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U9" sqref="U9"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="U9" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="3:19" ht="15" customHeight="1">
+    <row r="1" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C1" s="2" t="s">
         <v>34</v>
       </c>
@@ -1083,7 +1143,7 @@
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
     </row>
-    <row r="2" spans="3:19" ht="15" customHeight="1">
+    <row r="2" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -1109,4 +1169,63 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C1:S2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="T12" sqref="T12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+    </row>
+    <row r="2" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:S2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RickyWijaya.WeN\Desktop\tugas tkppl\KomponenKomputer\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Scrummaster" sheetId="3" r:id="rId1"/>
@@ -18,13 +13,14 @@
     <sheet name="Sprint 2" sheetId="2" r:id="rId4"/>
     <sheet name="Sprint 3" sheetId="5" r:id="rId5"/>
     <sheet name="Sprint 4" sheetId="6" r:id="rId6"/>
+    <sheet name="Sprint 5" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="53">
   <si>
     <t>Done :</t>
   </si>
@@ -132,6 +128,57 @@
   </si>
   <si>
     <t>Penjelasan pada Sprint 4</t>
+  </si>
+  <si>
+    <t>Penjelasan pada Sprint 5</t>
+  </si>
+  <si>
+    <t>2. Awal Sejarah Komputer :Alat Hitung</t>
+  </si>
+  <si>
+    <t>3. Golongan Komputer</t>
+  </si>
+  <si>
+    <t>4. Awal Sejarah Komputer</t>
+  </si>
+  <si>
+    <t>5. Pengertian Brainware</t>
+  </si>
+  <si>
+    <t>6. Contoh Software</t>
+  </si>
+  <si>
+    <t>7. Pengertian Hardware</t>
+  </si>
+  <si>
+    <t>8. Pengertian Software</t>
+  </si>
+  <si>
+    <t>9. Contoh Hardware : Input Device</t>
+  </si>
+  <si>
+    <t>10. Brainware: Konsep Tri Tunggal</t>
+  </si>
+  <si>
+    <t>11. Menu</t>
+  </si>
+  <si>
+    <t>12. Sejarah : Generasi Komputer</t>
+  </si>
+  <si>
+    <t>13. Brainware : Komponen Brainware</t>
+  </si>
+  <si>
+    <t>14. Jenis Hardware</t>
+  </si>
+  <si>
+    <t>15. Jenis Software</t>
+  </si>
+  <si>
+    <t>16. Hardware : Output Device</t>
+  </si>
+  <si>
+    <t>17. Contoh Brainware</t>
   </si>
 </sst>
 </file>
@@ -446,6 +493,55 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>69140</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="581025"/>
+          <a:ext cx="10363200" cy="4822115"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -489,7 +585,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -524,7 +620,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -955,7 +1051,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:S37"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C2" sqref="C2:S3"/>
     </sheetView>
   </sheetViews>
@@ -1057,7 +1153,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:S2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
@@ -1116,8 +1212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:S2"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="U9" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1175,7 +1271,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="T12" sqref="T12"/>
     </sheetView>
   </sheetViews>
@@ -1228,4 +1324,153 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C1:S47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="U47" sqref="U47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+    </row>
+    <row r="2" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+    </row>
+    <row r="30" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I30" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I31" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I32" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I34" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I35" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I36" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I37" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I38" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I39" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I40" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I41" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I42" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I43" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I44" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I45" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I46" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="47" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I47" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:S2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>